--- a/team_specific_matrix/N.C. Central_A.xlsx
+++ b/team_specific_matrix/N.C. Central_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2488888888888889</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="C2">
-        <v>0.4755555555555556</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02666666666666667</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1955555555555556</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05333333333333334</v>
+        <v>0.06349206349206349</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00909090909090909</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C3">
-        <v>0.00909090909090909</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00909090909090909</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6818181818181818</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2909090909090909</v>
+        <v>0.261437908496732</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1944444444444444</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04651162790697674</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0310077519379845</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06976744186046512</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2635658914728682</v>
+        <v>0.2513966480446927</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007751937984496124</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09302325581395349</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="R6">
-        <v>0.03875968992248062</v>
+        <v>0.05586592178770949</v>
       </c>
       <c r="S6">
-        <v>0.4496124031007752</v>
+        <v>0.4189944134078212</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1472868217054264</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0310077519379845</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06201550387596899</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1472868217054264</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01550387596899225</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1782945736434109</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="R7">
-        <v>0.06976744186046512</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="S7">
-        <v>0.3488372093023256</v>
+        <v>0.3756613756613756</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1149825783972125</v>
+        <v>0.09823677581863979</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006968641114982578</v>
+        <v>0.01007556675062972</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04529616724738676</v>
+        <v>0.03778337531486146</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1428571428571428</v>
+        <v>0.1335012594458438</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02090592334494774</v>
+        <v>0.02267002518891688</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.132404181184669</v>
+        <v>0.1486146095717884</v>
       </c>
       <c r="R8">
-        <v>0.08362369337979095</v>
+        <v>0.1007556675062972</v>
       </c>
       <c r="S8">
-        <v>0.4529616724738676</v>
+        <v>0.4483627204030227</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02222222222222222</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02222222222222222</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02222222222222222</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.1111111111111111</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="S9">
-        <v>0.4888888888888889</v>
+        <v>0.4558823529411765</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1353383458646616</v>
+        <v>0.1385435168738899</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03132832080200501</v>
+        <v>0.02753108348134991</v>
       </c>
       <c r="E10">
-        <v>0.0012531328320802</v>
+        <v>0.001776198934280639</v>
       </c>
       <c r="F10">
-        <v>0.06015037593984962</v>
+        <v>0.0541740674955595</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1215538847117794</v>
+        <v>0.1181172291296625</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02380952380952381</v>
+        <v>0.02042628774422735</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2130325814536341</v>
+        <v>0.2238010657193606</v>
       </c>
       <c r="R10">
-        <v>0.07894736842105263</v>
+        <v>0.07815275310834814</v>
       </c>
       <c r="S10">
-        <v>0.3345864661654135</v>
+        <v>0.3374777975133215</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1709844559585492</v>
+        <v>0.1591695501730104</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07772020725388601</v>
+        <v>0.08650519031141868</v>
       </c>
       <c r="K11">
-        <v>0.1761658031088083</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L11">
-        <v>0.5544041450777202</v>
+        <v>0.5640138408304498</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02072538860103627</v>
+        <v>0.01384083044982699</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7786885245901639</v>
+        <v>0.768361581920904</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1639344262295082</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="L12">
-        <v>0.01639344262295082</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03278688524590164</v>
+        <v>0.03954802259887006</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6190476190476191</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09523809523809523</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0078125</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1328125</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="I15">
-        <v>0.046875</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="J15">
-        <v>0.390625</v>
+        <v>0.3837837837837838</v>
       </c>
       <c r="K15">
-        <v>0.046875</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015625</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0703125</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2890625</v>
+        <v>0.2648648648648649</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02816901408450704</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1408450704225352</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I16">
-        <v>0.07746478873239436</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="J16">
-        <v>0.4014084507042254</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K16">
-        <v>0.1197183098591549</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01408450704225352</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04929577464788732</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1690140845070423</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02766798418972332</v>
+        <v>0.02879581151832461</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1620553359683795</v>
+        <v>0.1544502617801047</v>
       </c>
       <c r="I17">
-        <v>0.07114624505928854</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="J17">
-        <v>0.4505928853754941</v>
+        <v>0.4345549738219895</v>
       </c>
       <c r="K17">
-        <v>0.07114624505928854</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0158102766798419</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07905138339920949</v>
+        <v>0.07591623036649214</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1225296442687747</v>
+        <v>0.1282722513089005</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01801801801801802</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1801801801801802</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.05405405405405406</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="J18">
-        <v>0.4774774774774775</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="K18">
-        <v>0.09009009009009009</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N18">
-        <v>0.009009009009009009</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="O18">
-        <v>0.05405405405405406</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1171171171171171</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02339901477832512</v>
+        <v>0.01938325991189427</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2241379310344828</v>
+        <v>0.2237885462555066</v>
       </c>
       <c r="I19">
-        <v>0.05788177339901478</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="J19">
-        <v>0.354679802955665</v>
+        <v>0.3629955947136564</v>
       </c>
       <c r="K19">
-        <v>0.1231527093596059</v>
+        <v>0.120704845814978</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01354679802955665</v>
+        <v>0.01585903083700441</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05172413793103448</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1514778325123153</v>
+        <v>0.1427312775330397</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/N.C. Central_A.xlsx
+++ b/team_specific_matrix/N.C. Central_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2476190476190476</v>
+        <v>0.2541899441340782</v>
       </c>
       <c r="C2">
-        <v>0.4761904761904762</v>
+        <v>0.4664804469273743</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02222222222222222</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1904761904761905</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06349206349206349</v>
+        <v>0.06145251396648044</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0130718954248366</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="C3">
-        <v>0.006535947712418301</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0130718954248366</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7058823529411765</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.261437908496732</v>
+        <v>0.239766081871345</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6875</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2708333333333333</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0446927374301676</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0223463687150838</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09497206703910614</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2513966480446927</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00558659217877095</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.106145251396648</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="R6">
-        <v>0.05586592178770949</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="S6">
-        <v>0.4189944134078212</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1322751322751323</v>
+        <v>0.1352657004830918</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03174603174603174</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06878306878306878</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1400966183574879</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01587301587301587</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1746031746031746</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R7">
-        <v>0.0582010582010582</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="S7">
-        <v>0.3756613756613756</v>
+        <v>0.3671497584541063</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09823677581863979</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01007556675062972</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03778337531486146</v>
+        <v>0.03908045977011494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1335012594458438</v>
+        <v>0.1402298850574713</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02267002518891688</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1486146095717884</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="R8">
-        <v>0.1007556675062972</v>
+        <v>0.09425287356321839</v>
       </c>
       <c r="S8">
-        <v>0.4483627204030227</v>
+        <v>0.439080459770115</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764706</v>
+        <v>0.08125</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02941176470588235</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04411764705882353</v>
+        <v>0.04375</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08823529411764706</v>
+        <v>0.1125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02205882352941177</v>
+        <v>0.03125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1764705882352941</v>
+        <v>0.19375</v>
       </c>
       <c r="R9">
-        <v>0.09558823529411764</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
-        <v>0.4558823529411765</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1385435168738899</v>
+        <v>0.1372854914196568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02753108348134991</v>
+        <v>0.02730109204368175</v>
       </c>
       <c r="E10">
-        <v>0.001776198934280639</v>
+        <v>0.0015600624024961</v>
       </c>
       <c r="F10">
-        <v>0.0541740674955595</v>
+        <v>0.05226209048361934</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1181172291296625</v>
+        <v>0.1193447737909516</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02042628774422735</v>
+        <v>0.0187207488299532</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2238010657193606</v>
+        <v>0.2223088923556942</v>
       </c>
       <c r="R10">
-        <v>0.07815275310834814</v>
+        <v>0.08736349453978159</v>
       </c>
       <c r="S10">
-        <v>0.3374777975133215</v>
+        <v>0.3338533541341654</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1591695501730104</v>
+        <v>0.1501597444089457</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08650519031141868</v>
+        <v>0.09584664536741214</v>
       </c>
       <c r="K11">
-        <v>0.1764705882352941</v>
+        <v>0.1789137380191693</v>
       </c>
       <c r="L11">
-        <v>0.5640138408304498</v>
+        <v>0.5623003194888179</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01384083044982699</v>
+        <v>0.01277955271565495</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.768361581920904</v>
+        <v>0.774869109947644</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1694915254237288</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="K12">
-        <v>0.01129943502824859</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="L12">
-        <v>0.01129943502824859</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03954802259887006</v>
+        <v>0.03664921465968586</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01081081081081081</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.145945945945946</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="I15">
-        <v>0.04864864864864865</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="J15">
-        <v>0.3837837837837838</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="K15">
-        <v>0.06486486486486487</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01621621621621622</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06486486486486487</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2648648648648649</v>
+        <v>0.2616822429906542</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03535353535353535</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1363636363636364</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="I16">
-        <v>0.08585858585858586</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="J16">
-        <v>0.3939393939393939</v>
+        <v>0.3876651982378855</v>
       </c>
       <c r="K16">
-        <v>0.1414141414141414</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0101010101010101</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06060606060606061</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1363636363636364</v>
+        <v>0.145374449339207</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02879581151832461</v>
+        <v>0.02528735632183908</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1544502617801047</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="I17">
-        <v>0.07329842931937172</v>
+        <v>0.0735632183908046</v>
       </c>
       <c r="J17">
-        <v>0.4345549738219895</v>
+        <v>0.4528735632183908</v>
       </c>
       <c r="K17">
-        <v>0.09424083769633508</v>
+        <v>0.08735632183908046</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01047120418848168</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07591623036649214</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1282722513089005</v>
+        <v>0.1218390804597701</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02469135802469136</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1463,25 +1463,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.06172839506172839</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="J18">
-        <v>0.4567901234567901</v>
+        <v>0.4375</v>
       </c>
       <c r="K18">
-        <v>0.08641975308641975</v>
+        <v>0.09375</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01234567901234568</v>
+        <v>0.015625</v>
       </c>
       <c r="N18">
-        <v>0.006172839506172839</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="O18">
-        <v>0.06172839506172839</v>
+        <v>0.0625</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1234567901234568</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01938325991189427</v>
+        <v>0.01845906902086678</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2237885462555066</v>
+        <v>0.2207062600321027</v>
       </c>
       <c r="I19">
-        <v>0.06167400881057269</v>
+        <v>0.06581059390048154</v>
       </c>
       <c r="J19">
-        <v>0.3629955947136564</v>
+        <v>0.3635634028892456</v>
       </c>
       <c r="K19">
-        <v>0.120704845814978</v>
+        <v>0.1171749598715891</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01585903083700441</v>
+        <v>0.01605136436597111</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05286343612334802</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1427312775330397</v>
+        <v>0.1420545746388443</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/N.C. Central_A.xlsx
+++ b/team_specific_matrix/N.C. Central_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2541899441340782</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C2">
-        <v>0.4664804469273743</v>
+        <v>0.4780361757105943</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0223463687150838</v>
+        <v>0.020671834625323</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1955307262569832</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06145251396648044</v>
+        <v>0.06718346253229975</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01169590643274854</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C3">
-        <v>0.01169590643274854</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01754385964912281</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7192982456140351</v>
+        <v>0.7052631578947368</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.239766081871345</v>
+        <v>0.2526315789473684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6851851851851852</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2592592592592592</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04102564102564103</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02051282051282051</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09230769230769231</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2615384615384616</v>
+        <v>0.2688679245283019</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005128205128205128</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1282051282051282</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="R6">
-        <v>0.05128205128205128</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.3915094339622642</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1352657004830918</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02898550724637681</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06763285024154589</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1400966183574879</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01932367149758454</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1739130434782609</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R7">
-        <v>0.06763285024154589</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="S7">
-        <v>0.3671497584541063</v>
+        <v>0.3644444444444445</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.103448275862069</v>
+        <v>0.1033755274261603</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01379310344827586</v>
+        <v>0.01476793248945148</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03908045977011494</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1402298850574713</v>
+        <v>0.1350210970464135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02068965517241379</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1494252873563219</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="R8">
-        <v>0.09425287356321839</v>
+        <v>0.0970464135021097</v>
       </c>
       <c r="S8">
-        <v>0.439080459770115</v>
+        <v>0.4388185654008439</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08125</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.025</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04375</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1125</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03125</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.19375</v>
+        <v>0.208092485549133</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="S9">
-        <v>0.4125</v>
+        <v>0.4046242774566474</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1372854914196568</v>
+        <v>0.1410727406318883</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02730109204368175</v>
+        <v>0.02645113886847906</v>
       </c>
       <c r="E10">
-        <v>0.0015600624024961</v>
+        <v>0.001469507714915503</v>
       </c>
       <c r="F10">
-        <v>0.05226209048361934</v>
+        <v>0.05363703159441587</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1193447737909516</v>
+        <v>0.121234386480529</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0187207488299532</v>
+        <v>0.01763409257898604</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2223088923556942</v>
+        <v>0.2211609110947833</v>
       </c>
       <c r="R10">
-        <v>0.08736349453978159</v>
+        <v>0.08890521675238795</v>
       </c>
       <c r="S10">
-        <v>0.3338533541341654</v>
+        <v>0.328434974283615</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1501597444089457</v>
+        <v>0.1522388059701492</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09584664536741214</v>
+        <v>0.09552238805970149</v>
       </c>
       <c r="K11">
-        <v>0.1789137380191693</v>
+        <v>0.1850746268656716</v>
       </c>
       <c r="L11">
-        <v>0.5623003194888179</v>
+        <v>0.5552238805970149</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01277955271565495</v>
+        <v>0.01194029850746269</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.774869109947644</v>
+        <v>0.7821782178217822</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.162303664921466</v>
+        <v>0.1534653465346535</v>
       </c>
       <c r="K12">
-        <v>0.01047120418848168</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="L12">
-        <v>0.01570680628272251</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03664921465968586</v>
+        <v>0.03465346534653466</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7428571428571429</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01401869158878505</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1355140186915888</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="I15">
-        <v>0.0514018691588785</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="J15">
-        <v>0.3925233644859813</v>
+        <v>0.3883928571428572</v>
       </c>
       <c r="K15">
-        <v>0.06542056074766354</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01401869158878505</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06542056074766354</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2616822429906542</v>
+        <v>0.2678571428571428</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03083700440528634</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1409691629955947</v>
+        <v>0.140495867768595</v>
       </c>
       <c r="I16">
-        <v>0.08370044052863436</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="J16">
-        <v>0.3876651982378855</v>
+        <v>0.3966942148760331</v>
       </c>
       <c r="K16">
-        <v>0.13215859030837</v>
+        <v>0.128099173553719</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00881057268722467</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07048458149779736</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.145374449339207</v>
+        <v>0.1446280991735537</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02528735632183908</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1494252873563219</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="I17">
-        <v>0.0735632183908046</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="J17">
-        <v>0.4528735632183908</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="K17">
-        <v>0.08735632183908046</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01379310344827586</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07586206896551724</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1218390804597701</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02083333333333333</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="I18">
-        <v>0.07291666666666667</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="J18">
-        <v>0.4375</v>
+        <v>0.4278846153846154</v>
       </c>
       <c r="K18">
-        <v>0.09375</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.015625</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N18">
-        <v>0.005208333333333333</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O18">
-        <v>0.0625</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1298076923076923</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01845906902086678</v>
+        <v>0.01933085501858736</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2207062600321027</v>
+        <v>0.2245353159851301</v>
       </c>
       <c r="I19">
-        <v>0.06581059390048154</v>
+        <v>0.06617100371747212</v>
       </c>
       <c r="J19">
-        <v>0.3635634028892456</v>
+        <v>0.3576208178438662</v>
       </c>
       <c r="K19">
-        <v>0.1171749598715891</v>
+        <v>0.1174721189591078</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01605136436597111</v>
+        <v>0.0171003717472119</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05617977528089887</v>
+        <v>0.05427509293680297</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1420545746388443</v>
+        <v>0.1434944237918216</v>
       </c>
     </row>
   </sheetData>
